--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3913081192455813</v>
+        <v>0.3641984574749605</v>
       </c>
       <c r="C11" t="n">
-        <v>1.371852396530836</v>
+        <v>1.283276178575844</v>
       </c>
       <c r="D11" t="n">
-        <v>2.26789515586243</v>
+        <v>2.028407531022595</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3641984574749605</v>
+        <v>0.3940185566540746</v>
       </c>
       <c r="C11" t="n">
-        <v>1.283276178575844</v>
+        <v>1.387739328728395</v>
       </c>
       <c r="D11" t="n">
-        <v>2.028407531022595</v>
+        <v>2.448311085856949</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3940185566540746</v>
+        <v>0.4054024105389531</v>
       </c>
       <c r="C11" t="n">
-        <v>1.387739328728395</v>
+        <v>1.41811211239181</v>
       </c>
       <c r="D11" t="n">
-        <v>2.448311085856949</v>
+        <v>2.542636567943597</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4054024105389531</v>
+        <v>0.3567730239947496</v>
       </c>
       <c r="C11" t="n">
-        <v>1.41811211239181</v>
+        <v>1.274381795788549</v>
       </c>
       <c r="D11" t="n">
-        <v>2.542636567943597</v>
+        <v>2.161774784184057</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3567730239947496</v>
+        <v>0.3693922552661431</v>
       </c>
       <c r="C11" t="n">
-        <v>1.274381795788549</v>
+        <v>1.300778881202311</v>
       </c>
       <c r="D11" t="n">
-        <v>2.161774784184057</v>
+        <v>2.464547067689111</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3693922552661431</v>
+        <v>0.3856676215516457</v>
       </c>
       <c r="C11" t="n">
-        <v>1.300778881202311</v>
+        <v>1.381069657532816</v>
       </c>
       <c r="D11" t="n">
-        <v>2.464547067689111</v>
+        <v>2.5071581872712</v>
       </c>
     </row>
     <row r="12">
